--- a/docs/designs/エンティティ定義書.xlsx
+++ b/docs/designs/エンティティ定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="6" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="740" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="730" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="めも" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;¥&quot;#,##0;\\\-&quot;¥&quot;#,##0"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <name val="游ゴシック"/>
@@ -603,12 +603,6 @@
       <name val="游ゴシック"/>
       <scheme val="minor"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="游ゴシック"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <i/>
@@ -815,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1150,21 +1144,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1193,21 +1172,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1219,108 +1183,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1455,34 +1322,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1510,7 +1349,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -1519,34 +1358,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="44" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="44" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="46" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="35" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="37" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1561,10 +1400,10 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1573,10 +1412,10 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1585,10 +1424,10 @@
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1597,10 +1436,10 @@
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1609,10 +1448,10 @@
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1621,20 +1460,20 @@
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1710,31 +1549,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,67 +1591,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1845,13 +1660,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2176,83 +1988,83 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H3"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="14.000000"/>
   <cols>
-    <col min="1" max="1" style="32" width="4.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="32" width="18.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="32" width="19.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="32" width="7.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="32" width="4.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="32" width="11.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="32" width="3.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="32" width="28.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" style="32" width="15.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" style="32" width="59.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" style="32" width="18.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="16384" style="32" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" style="31" width="4.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="31" width="18.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="31" width="19.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="31" width="7.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="31" width="4.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="31" width="11.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="31" width="3.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="31" width="28.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="31" width="15.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="31" width="59.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" style="31" width="18.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="16384" style="31" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15.000000">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="65" t="str">
+      <c r="D2" s="57" t="str">
         <f>C1</f>
         <v>memos</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="38"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.000000">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15.000000">
@@ -2272,62 +2084,62 @@
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="15.000000">
-      <c r="A6" s="42">
+      <c r="A6" s="40">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <v>10</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="40" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="44"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
@@ -2349,9 +2161,9 @@
       <c r="F7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="43"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="41"/>
       <c r="J7" s="16"/>
       <c r="K7" s="2"/>
     </row>
@@ -2387,13 +2199,13 @@
       <c r="B9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="32" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>2</v>
       </c>
       <c r="F9" s="14" t="s">
@@ -2411,7 +2223,7 @@
       <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -2425,9 +2237,9 @@
         <v>57</v>
       </c>
       <c r="G10" s="27"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="30"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11">
@@ -2471,7 +2283,7 @@
         <v>79</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="54"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="27"/>
       <c r="H12" s="13"/>
       <c r="I12" s="4"/>
@@ -2492,7 +2304,7 @@
         <v>79</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="54"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="18"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2513,7 +2325,7 @@
         <v>79</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="54"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="18"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2528,7 +2340,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="54"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="27"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2543,7 +2355,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="13"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="54"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="18"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2558,7 +2370,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="13"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="54"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="18"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2573,7 +2385,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="54"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="24"/>
       <c r="H18" s="4"/>
       <c r="I18" s="15"/>
@@ -2602,7 +2414,7 @@
       <c r="B20" s="13"/>
       <c r="C20" s="4"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="49"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="4"/>
@@ -2617,7 +2429,7 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="48"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="4"/>
@@ -2629,10 +2441,10 @@
       <c r="A22" s="3">
         <v>17</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="48"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="4"/>
@@ -2644,7 +2456,7 @@
       <c r="A23" s="17">
         <v>18</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="4"/>
@@ -2806,7 +2618,7 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="H34" s="36"/>
+      <c r="H34" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2827,83 +2639,83 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H3"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="14.000000"/>
   <cols>
-    <col min="1" max="1" style="32" width="4.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="32" width="18.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="32" width="19.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="32" width="7.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="32" width="4.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="32" width="11.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="32" width="3.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="32" width="28.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" style="32" width="15.50500011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" style="32" width="59.50500107" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" style="32" width="18.62999916" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="16384" style="32" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" style="31" width="4.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="31" width="18.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="31" width="19.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="31" width="7.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="31" width="4.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="31" width="11.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="31" width="3.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="31" width="28.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="31" width="15.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="31" width="59.50500107" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" style="31" width="18.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="16384" style="31" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="36"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15.000000">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="56" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="65" t="str">
+      <c r="D2" s="57" t="str">
         <f>C1</f>
         <v>categories</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="38"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.000000">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="15.000000">
@@ -2952,26 +2764,26 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="6" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A6" s="12">
         <v>1</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <v>10</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="46" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="4"/>
@@ -2979,23 +2791,23 @@
       <c r="J6" s="19"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="7" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A7" s="17">
         <v>2</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="4">
         <v>100</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="49" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="4"/>
@@ -3003,32 +2815,32 @@
       <c r="J7" s="19"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="8" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="4">
         <v>100</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="30"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="9" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -3041,72 +2853,78 @@
       <c r="D9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="33">
-        <v>11</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="30"/>
+      <c r="E9" s="32">
+        <v>10</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="10" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A10" s="17">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="B10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="27"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="11" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A11" s="17">
         <v>6</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>27</v>
+      <c r="B11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="51"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="19"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="16"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="12" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A12" s="17">
         <v>7</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>54</v>
+      <c r="B12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="14"/>
       <c r="G12" s="18"/>
       <c r="H12" s="4"/>
@@ -3114,14 +2932,20 @@
       <c r="J12" s="19"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="13" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A13" s="17">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="43"/>
       <c r="F13" s="14"/>
       <c r="G13" s="18"/>
       <c r="H13" s="4"/>
@@ -3129,67 +2953,67 @@
       <c r="J13" s="19"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="14" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A14" s="17">
         <v>9</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="27"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="18"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="19"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="15" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A15" s="17">
         <v>10</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="24"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="4"/>
       <c r="I15" s="15"/>
       <c r="J15" s="19"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="16" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A16" s="17">
         <v>11</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="19"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="17" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A17" s="17">
         <v>12</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="18"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="19"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="18" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -3204,7 +3028,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="19" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -3216,10 +3040,10 @@
       <c r="G19" s="18"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="20"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="20" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -3230,11 +3054,11 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="21" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -3249,7 +3073,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="22" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -3261,10 +3085,10 @@
       <c r="G22" s="18"/>
       <c r="H22" s="4"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="21"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="23" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -3279,7 +3103,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="24" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -3290,11 +3114,11 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="19"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="25" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -3309,82 +3133,82 @@
       <c r="J25" s="19"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="26" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A26" s="17">
         <v>21</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="19"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="27" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A27" s="17">
         <v>22</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="22"/>
       <c r="G27" s="18"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="20"/>
+      <c r="J27" s="19"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="28" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A28" s="17">
         <v>23</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="19"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="29" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A29" s="17">
         <v>24</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="15"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="23"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="22"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="19"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="30" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A30" s="17">
         <v>25</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="22"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="20"/>
+      <c r="J30" s="19"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="31" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A31" s="17">
         <v>26</v>
       </c>
@@ -3392,18 +3216,18 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="15"/>
-      <c r="F31" s="22"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="22"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
-      <c r="J31" s="19"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="32" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A32" s="17">
         <v>27</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="15"/>
@@ -3414,7 +3238,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" s="36" customFormat="1" ht="14.250000" customHeight="1">
+    <row r="33" spans="1:11" s="35" customFormat="1" ht="14.250000" customHeight="1">
       <c r="A33" s="17">
         <v>28</v>
       </c>
@@ -3430,11 +3254,15 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
